--- a/data/trans_dic/P15D$urgencias-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 71,52</t>
+          <t>33,14; 73,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,52; 69,7</t>
+          <t>45,71; 68,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,61; 63,17</t>
+          <t>36,53; 64,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 41,85</t>
+          <t>15,34; 41,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,87; 79,67</t>
+          <t>52,25; 79,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,43; 60,69</t>
+          <t>42,71; 61,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,59; 69,61</t>
+          <t>45,4; 67,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,97; 52,0</t>
+          <t>36,33; 52,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,91; 72,79</t>
+          <t>49,55; 72,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,08; 61,93</t>
+          <t>46,71; 61,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,51; 63,3</t>
+          <t>44,6; 63,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,88; 46,04</t>
+          <t>32,28; 46,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,47; 61,48</t>
+          <t>39,3; 61,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,05; 68,19</t>
+          <t>53,0; 68,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,64; 73,17</t>
+          <t>55,61; 72,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,23; 77,3</t>
+          <t>59,98; 77,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,06; 75,82</t>
+          <t>42,77; 75,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,19; 64,62</t>
+          <t>45,42; 64,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,69; 81,47</t>
+          <t>60,53; 81,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,15; 65,67</t>
+          <t>45,69; 65,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,87; 62,72</t>
+          <t>43,66; 62,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,95; 64,72</t>
+          <t>53,38; 64,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,85; 74,22</t>
+          <t>60,82; 73,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,7; 69,92</t>
+          <t>56,34; 70,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 54,92</t>
+          <t>5,63; 54,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,19; 64,82</t>
+          <t>26,39; 65,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,36; 80,63</t>
+          <t>43,81; 80,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,02; 76,15</t>
+          <t>32,37; 72,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,06; 92,55</t>
+          <t>39,0; 92,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,22; 83,39</t>
+          <t>48,59; 83,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,79; 80,24</t>
+          <t>44,18; 81,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,62; 64,3</t>
+          <t>37,68; 65,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 62,14</t>
+          <t>24,21; 62,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,06; 71,6</t>
+          <t>42,84; 71,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,38; 76,74</t>
+          <t>50,19; 75,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,27; 65,64</t>
+          <t>41,1; 65,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,08; 55,57</t>
+          <t>36,34; 55,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,96; 64,9</t>
+          <t>52,1; 63,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,9; 67,17</t>
+          <t>53,7; 68,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,19; 66,72</t>
+          <t>51,27; 67,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,18; 73,78</t>
+          <t>54,64; 74,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,52; 60,36</t>
+          <t>49,01; 62,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,41; 71,98</t>
+          <t>57,09; 71,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,41; 56,69</t>
+          <t>44,94; 56,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,78; 61,13</t>
+          <t>47,39; 60,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,58; 61,58</t>
+          <t>52,75; 61,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57,79; 67,54</t>
+          <t>57,77; 67,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,66; 59,62</t>
+          <t>49,81; 59,66</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, acudir a urgencias</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12976</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43094</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22872</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9617</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30544</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>58173</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42815</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35013</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43520</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101268</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65687</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>44630</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8343; 18548</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34196; 51256</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16694; 29361</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5462; 14648</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23786; 36394</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>47783; 69044</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33869; 50689</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28902; 41551</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35030; 51387</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87195; 115055</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53661; 76855</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37168; 52990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39510</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>110922</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>77915</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>89713</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20993</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62701</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61083</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57033</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60504</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>173622</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>138999</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>146746</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30852; 48324</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>96475; 123963</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>67390; 88306</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>78003; 101250</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14988; 26371</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51641; 73513</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51239; 68746</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46584; 66399</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49576; 71527</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>157842; 190795</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>125200; 150859</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>130718; 162552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12015</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19368</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18427</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19675</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19791</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15580</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13760</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31690</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39159</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34008</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1092; 10627</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6877; 16995</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13491; 24835</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10754; 24095</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5162; 12266</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13981; 24010</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13698; 25181</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11629; 20228</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7901; 20486</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23487; 38951</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31020; 46881</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26339; 41722</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56905</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>166030</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>120156</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>117758</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60878</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123689</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>107626</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>117783</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>306579</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>243846</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>225384</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44731; 68097</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>147386; 180648</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>106161; 134501</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>101970; 133720</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51253; 69745</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>124644; 157938</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>108617; 136617</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95450; 120591</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>102779; 131867</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>283379; 329735</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>224114; 262736</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>204825; 245349</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>